--- a/image/person.xlsx
+++ b/image/person.xlsx
@@ -790,43 +790,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.97265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.8203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.82421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="75.4765625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="76.5546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/person.xlsx
+++ b/image/person.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="202">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -571,10 +571,6 @@
   </si>
   <si>
     <t>Person.link.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -790,43 +786,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.97265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.8203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.5234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.82421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="76.5546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="75.4765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3028,13 +3024,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3085,7 +3081,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3100,7 +3096,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3111,7 +3107,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3140,7 +3136,7 @@
         <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>96</v>
@@ -3193,7 +3189,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3208,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3219,11 +3215,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3245,10 +3241,10 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>96</v>
@@ -3303,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3329,7 +3325,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3352,13 +3348,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3409,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>48</v>
@@ -3424,7 +3420,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3435,7 +3431,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3461,10 +3457,10 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3494,11 +3490,11 @@
         <v>132</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3515,7 +3511,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3530,7 +3526,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
